--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17625" windowHeight="10680"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>区服+名字</t>
   </si>
@@ -73,15 +73,18 @@
     <t>144-zwy(九霄环佩)</t>
   </si>
   <si>
+    <t>146-江南</t>
+  </si>
+  <si>
     <t>149-灰企鹅呆瓜</t>
   </si>
   <si>
-    <t>146-江南</t>
-  </si>
-  <si>
     <t>145-掌管贫穷的神(Mr.Go)</t>
   </si>
   <si>
+    <t>137-No1.Mr</t>
+  </si>
+  <si>
     <t>156-Tiao跳猪</t>
   </si>
   <si>
@@ -94,18 +97,24 @@
     <t>154-吃鹿的于</t>
   </si>
   <si>
-    <t>137-No1.Mr</t>
+    <t>137-神之千手(神之一手)</t>
+  </si>
+  <si>
+    <t>130-随￥缘</t>
+  </si>
+  <si>
+    <t>157-空泣</t>
   </si>
   <si>
     <t>148-水煮肉片(数字经济)</t>
   </si>
   <si>
-    <t>157-空泣</t>
-  </si>
-  <si>
     <t>142-异界淘金者</t>
   </si>
   <si>
+    <t>145-古月星辰</t>
+  </si>
+  <si>
     <t>154-。马铃薯</t>
   </si>
   <si>
@@ -118,30 +127,33 @@
     <t>131-孔琦</t>
   </si>
   <si>
-    <t>137-神之千手(神之一手)</t>
-  </si>
-  <si>
-    <t>130-随￥缘</t>
+    <t>148-请叫我阿奎</t>
+  </si>
+  <si>
+    <t>145-杜佳捷</t>
   </si>
   <si>
     <t>133-叶小怪</t>
   </si>
   <si>
-    <t>145-杜佳捷</t>
-  </si>
-  <si>
-    <t>148-请叫我阿奎</t>
+    <t>134-木轩</t>
+  </si>
+  <si>
+    <t>145-小黑</t>
   </si>
   <si>
     <t>151-suola</t>
   </si>
   <si>
+    <t>151-星空</t>
+  </si>
+  <si>
+    <t>136-miko</t>
+  </si>
+  <si>
     <t>136-植物园园长</t>
   </si>
   <si>
-    <t>136-niko</t>
-  </si>
-  <si>
     <t>137-王熠</t>
   </si>
   <si>
@@ -163,15 +175,15 @@
     <t>160-sky</t>
   </si>
   <si>
+    <t>133-杨豆豆</t>
+  </si>
+  <si>
+    <t>145-1</t>
+  </si>
+  <si>
     <t>133-抹小布</t>
   </si>
   <si>
-    <t>133-杨豆豆</t>
-  </si>
-  <si>
-    <t>134-木轩</t>
-  </si>
-  <si>
     <t>135-唔昂 王</t>
   </si>
   <si>
@@ -184,21 +196,18 @@
     <t>141-黑色香槟</t>
   </si>
   <si>
-    <t>145-小黑</t>
+    <t>145-[永恒]</t>
+  </si>
+  <si>
+    <t>145-明</t>
   </si>
   <si>
     <t>145-夜的第七z</t>
   </si>
   <si>
-    <t>145-1</t>
-  </si>
-  <si>
     <t>146-谢之求学者(念苍生)</t>
   </si>
   <si>
-    <t>151-星空</t>
-  </si>
-  <si>
     <t>152-养乐多</t>
   </si>
   <si>
@@ -217,34 +226,40 @@
     <t>134-破灭</t>
   </si>
   <si>
+    <t>136-标</t>
+  </si>
+  <si>
     <t>137-神之右手</t>
   </si>
   <si>
+    <t>137-随便玩玩</t>
+  </si>
+  <si>
     <t>138-LEO</t>
   </si>
   <si>
+    <t>142-多幸运</t>
+  </si>
+  <si>
     <t>142-老猫</t>
   </si>
   <si>
     <t>144-神经蛙</t>
   </si>
   <si>
-    <t>145-古月星辰</t>
-  </si>
-  <si>
-    <t>145-明</t>
-  </si>
-  <si>
     <t>145-九龙亦云</t>
   </si>
   <si>
-    <t>145-[永恒]</t>
-  </si>
-  <si>
     <t>146-Thor</t>
   </si>
   <si>
     <t>148-大锅</t>
+  </si>
+  <si>
+    <t>148-玩玩</t>
+  </si>
+  <si>
+    <t>148-12345</t>
   </si>
   <si>
     <t>149-柒柒</t>
@@ -1196,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="T9" sqref="P12:Q12 T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1242,14 +1257,14 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1260,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1270,7 +1285,7 @@
       </c>
       <c r="I3">
         <f>SUM(B3:H3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1296,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <f>SUM(B5:H5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1313,9 +1328,12 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <f>SUM(B6:H6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1323,17 +1341,14 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f>SUM(B7:H7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1343,12 +1358,15 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>SUM(B8:H8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1359,14 +1377,14 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1380,10 +1398,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f>SUM(B10:H10)</f>
@@ -1394,15 +1409,21 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
         <f>SUM(B11:H11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1413,11 +1434,11 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f>SUM(B12:H12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1427,9 +1448,12 @@
       <c r="F13">
         <v>2</v>
       </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
       <c r="I13">
         <f>SUM(B13:H13)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1437,14 +1461,11 @@
         <v>21</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
         <v>2</v>
       </c>
       <c r="I14">
         <f>SUM(B14:H14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1455,11 +1476,14 @@
         <v>1</v>
       </c>
       <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
         <f>SUM(B15:H15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1470,11 +1494,11 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1484,8 +1508,11 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f>SUM(B17:H17)</f>
@@ -1499,7 +1526,7 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
@@ -1514,51 +1541,54 @@
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
       <c r="I19">
         <f>SUM(B19:H19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="G20">
-        <v>3</v>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
         <f>SUM(B20:H20)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="G21">
-        <v>3</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21">
         <f>SUM(B21:H21)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="F22">
         <v>1</v>
       </c>
       <c r="I22">
         <f>SUM(B22:H22)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1566,11 +1596,14 @@
         <v>30</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23">
         <f>SUM(B23:H23)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1578,14 +1611,11 @@
         <v>31</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <f>SUM(B24:H24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1593,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>SUM(B25:H25)</f>
@@ -1611,11 +1641,11 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <f>SUM(B26:H26)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1626,11 +1656,11 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <f>SUM(B27:H27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1640,9 +1670,12 @@
       <c r="G28">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
       <c r="I28">
         <f>SUM(B28:H28)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1652,9 +1685,12 @@
       <c r="G29">
         <v>1</v>
       </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
       <c r="I29">
         <f>SUM(B29:H29)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1664,9 +1700,12 @@
       <c r="G30">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
       <c r="I30">
         <f>SUM(B30:H30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1676,9 +1715,12 @@
       <c r="G31">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
       <c r="I31">
         <f>SUM(B31:H31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1688,9 +1730,12 @@
       <c r="G32">
         <v>1</v>
       </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
       <c r="I32">
         <f>SUM(B32:H32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1745,48 +1790,48 @@
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="H37">
-        <v>2</v>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="I37">
         <f>SUM(B37:H37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="H38">
-        <v>2</v>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="I38">
         <f>SUM(B38:H38)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="H39">
-        <v>2</v>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="I39">
         <f>SUM(B39:H39)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="H40">
-        <v>2</v>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="I40">
         <f>SUM(B40:H40)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1794,11 +1839,11 @@
         <v>48</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <f>SUM(B41:H41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1806,11 +1851,11 @@
         <v>49</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <f>SUM(B42:H42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1902,11 +1947,11 @@
         <v>57</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <f>SUM(B50:H50)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1914,11 +1959,11 @@
         <v>58</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <f>SUM(B51:H51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1926,11 +1971,11 @@
         <v>59</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <f>SUM(B52:H52)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2149,18 +2194,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="8:9">
-      <c r="H73" t="s">
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
         <v>78</v>
       </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f>SUM(B71:H71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f>SUM(B72:H72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
       <c r="I73">
-        <f>SUM(I2:I70)</f>
-        <v>128</v>
+        <f>SUM(B73:H73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f>SUM(B74:H74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f>SUM(B75:H75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9">
+      <c r="H78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I78">
+        <f>SUM(I2:I75)</f>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I70">
-    <sortCondition ref="B3" descending="1"/>
+  <sortState ref="A2:I75">
+    <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>区服+名字</t>
   </si>
@@ -76,31 +76,37 @@
     <t>146-江南</t>
   </si>
   <si>
+    <t>137-No1.Mr</t>
+  </si>
+  <si>
     <t>149-灰企鹅呆瓜</t>
   </si>
   <si>
-    <t>145-掌管贫穷的神(Mr.Go)</t>
-  </si>
-  <si>
-    <t>137-No1.Mr</t>
+    <t>145-古希腊掌管贫穷(Mr.Go)</t>
   </si>
   <si>
     <t>156-Tiao跳猪</t>
   </si>
   <si>
+    <t>157-#</t>
+  </si>
+  <si>
     <t>137-鹰の一手</t>
   </si>
   <si>
-    <t>157-#</t>
-  </si>
-  <si>
     <t>154-吃鹿的于</t>
   </si>
   <si>
+    <t>148-大核桃</t>
+  </si>
+  <si>
+    <t>130-随￥缘</t>
+  </si>
+  <si>
     <t>137-神之千手(神之一手)</t>
   </si>
   <si>
-    <t>130-随￥缘</t>
+    <t>148-请叫我阿奎</t>
   </si>
   <si>
     <t>157-空泣</t>
@@ -121,54 +127,60 @@
     <t>137-尊尊不教诲</t>
   </si>
   <si>
-    <t>148-大核桃</t>
-  </si>
-  <si>
     <t>131-孔琦</t>
   </si>
   <si>
-    <t>148-请叫我阿奎</t>
+    <t>133-叶小怪</t>
+  </si>
+  <si>
+    <t>151-suola</t>
+  </si>
+  <si>
+    <t>150-开飞机的贝塔</t>
+  </si>
+  <si>
+    <t>134-木轩</t>
   </si>
   <si>
     <t>145-杜佳捷</t>
   </si>
   <si>
-    <t>133-叶小怪</t>
-  </si>
-  <si>
-    <t>134-木轩</t>
+    <t>151-星空</t>
+  </si>
+  <si>
+    <t>133-抹小布</t>
   </si>
   <si>
     <t>145-小黑</t>
   </si>
   <si>
-    <t>151-suola</t>
-  </si>
-  <si>
-    <t>151-星空</t>
-  </si>
-  <si>
     <t>136-miko</t>
   </si>
   <si>
+    <t>137-未雨</t>
+  </si>
+  <si>
+    <t>134-跑</t>
+  </si>
+  <si>
     <t>136-植物园园长</t>
   </si>
   <si>
     <t>137-王熠</t>
   </si>
   <si>
-    <t>137-未雨</t>
-  </si>
-  <si>
     <t>139-Lyric</t>
   </si>
   <si>
+    <t>142-Limere</t>
+  </si>
+  <si>
+    <t>147-没有nic</t>
+  </si>
+  <si>
     <t>148-淘汰郎</t>
   </si>
   <si>
-    <t>150-开飞机的贝塔</t>
-  </si>
-  <si>
     <t>158-nn</t>
   </si>
   <si>
@@ -181,7 +193,7 @@
     <t>145-1</t>
   </si>
   <si>
-    <t>133-抹小布</t>
+    <t>139-Sure</t>
   </si>
   <si>
     <t>135-唔昂 王</t>
@@ -190,7 +202,7 @@
     <t>136-0.o</t>
   </si>
   <si>
-    <t>139-Sure</t>
+    <t>138-LEO</t>
   </si>
   <si>
     <t>141-黑色香槟</t>
@@ -220,24 +232,24 @@
     <t>134-高戈</t>
   </si>
   <si>
-    <t>134-跑</t>
-  </si>
-  <si>
     <t>134-破灭</t>
   </si>
   <si>
     <t>136-标</t>
   </si>
   <si>
+    <t>136-神经蛙</t>
+  </si>
+  <si>
+    <t>137-菜的够吊</t>
+  </si>
+  <si>
     <t>137-神之右手</t>
   </si>
   <si>
     <t>137-随便玩玩</t>
   </si>
   <si>
-    <t>138-LEO</t>
-  </si>
-  <si>
     <t>142-多幸运</t>
   </si>
   <si>
@@ -253,19 +265,22 @@
     <t>146-Thor</t>
   </si>
   <si>
+    <t>148-12345</t>
+  </si>
+  <si>
     <t>148-大锅</t>
   </si>
   <si>
     <t>148-玩玩</t>
   </si>
   <si>
-    <t>148-12345</t>
-  </si>
-  <si>
     <t>149-柒柒</t>
   </si>
   <si>
     <t>150-夏进</t>
+  </si>
+  <si>
+    <t>150-朱</t>
   </si>
   <si>
     <t>157-动次打次</t>
@@ -1211,15 +1226,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="P12:Q12 T9"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,14 +1272,14 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1275,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1285,7 +1300,7 @@
       </c>
       <c r="I3">
         <f>SUM(B3:H3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1295,12 +1310,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="I4">
         <f>SUM(B4:H4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1343,12 +1361,15 @@
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
         <f>SUM(B7:H7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1358,33 +1379,36 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8">
         <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
       </c>
       <c r="I8">
         <f>SUM(B8:H8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1395,14 +1419,17 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
         <f>SUM(B10:H10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1419,11 +1446,11 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f>SUM(B11:H11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1431,14 +1458,14 @@
         <v>19</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
         <f>SUM(B12:H12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1448,12 +1475,15 @@
       <c r="F13">
         <v>2</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
         <f>SUM(B13:H13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1476,14 +1506,14 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
         <f>SUM(B15:H15)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1494,11 +1524,11 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1509,14 +1539,14 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <f>SUM(B17:H17)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1527,11 +1557,14 @@
         <v>1</v>
       </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
         <f>SUM(B18:H18)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1541,12 +1574,15 @@
       <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
         <f>SUM(B19:H19)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1556,7 +1592,7 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
@@ -1572,11 +1608,11 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <f>SUM(B21:H21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1586,36 +1622,39 @@
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
       <c r="I22">
         <f>SUM(B22:H22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="G23">
-        <v>4</v>
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
         <f>SUM(B23:H23)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="G24">
-        <v>4</v>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="I24">
         <f>SUM(B24:H24)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1623,14 +1662,14 @@
         <v>32</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
         <f>SUM(B25:H25)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1638,10 +1677,10 @@
         <v>33</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <f>SUM(B26:H26)</f>
@@ -1653,14 +1692,14 @@
         <v>34</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
         <f>SUM(B27:H27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1668,14 +1707,11 @@
         <v>35</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
         <f>SUM(B28:H28)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1686,11 +1722,11 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <f>SUM(B29:H29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1701,11 +1737,11 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <f>SUM(B30:H30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1716,11 +1752,11 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <f>SUM(B31:H31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1731,11 +1767,11 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <f>SUM(B32:H32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1745,9 +1781,12 @@
       <c r="G33">
         <v>1</v>
       </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
       <c r="I33">
         <f>SUM(B33:H33)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1757,9 +1796,12 @@
       <c r="G34">
         <v>1</v>
       </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
       <c r="I34">
         <f>SUM(B34:H34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1769,9 +1811,12 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
       <c r="I35">
         <f>SUM(B35:H35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1781,6 +1826,7 @@
       <c r="G36">
         <v>1</v>
       </c>
+      <c r="H36"/>
       <c r="I36">
         <f>SUM(B36:H36)</f>
         <v>1</v>
@@ -1838,48 +1884,48 @@
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="H41">
-        <v>3</v>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="I41">
         <f>SUM(B41:H41)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="H42">
-        <v>3</v>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="I42">
         <f>SUM(B42:H42)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="H43">
-        <v>2</v>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="I43">
         <f>SUM(B43:H43)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="H44">
-        <v>2</v>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="I44">
         <f>SUM(B44:H44)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1887,11 +1933,11 @@
         <v>52</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <f>SUM(B45:H45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1899,11 +1945,11 @@
         <v>53</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <f>SUM(B46:H46)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1911,11 +1957,11 @@
         <v>54</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <f>SUM(B47:H47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1983,11 +2029,11 @@
         <v>60</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
         <f>SUM(B53:H53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1995,11 +2041,11 @@
         <v>61</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <f>SUM(B54:H54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2007,11 +2053,11 @@
         <v>62</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <f>SUM(B55:H55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2019,11 +2065,11 @@
         <v>63</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <f>SUM(B56:H56)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2254,17 +2300,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="8:9">
-      <c r="H78" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
         <v>83</v>
       </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <f>SUM(B76:H76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f>SUM(B77:H77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
       <c r="I78">
-        <f>SUM(I2:I75)</f>
-        <v>160</v>
+        <f>SUM(B78:H78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f>SUM(B79:H79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f>SUM(B80:H80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:H83" si="0">SUM(B2:B80)</f>
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I83">
+        <f>SUM(I2:I80)</f>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I75">
+  <sortState ref="A2:I80">
     <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>区服+名字</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>154-。马铃薯</t>
-  </si>
-  <si>
-    <t>137-尊尊不教诲</t>
   </si>
   <si>
     <t>131-孔琦</t>
@@ -1226,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1383,14 +1380,14 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="I8">
         <f>SUM(B8:H8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1649,12 +1646,15 @@
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="F24">
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <f>SUM(B24:H24)</f>
-        <v>1</v>
+        <f t="shared" ref="I24:I64" si="0">SUM(B24:H24)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1662,14 +1662,14 @@
         <v>32</v>
       </c>
       <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f>SUM(B25:H25)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <f>SUM(B26:H26)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1694,12 +1694,9 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
       <c r="I27">
-        <f>SUM(B27:H27)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1707,11 +1704,14 @@
         <v>35</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
       </c>
       <c r="I28">
-        <f>SUM(B28:H28)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <f>SUM(B29:H29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <f>SUM(B30:H30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         <v>1</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="I31">
-        <f>SUM(B31:H31)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <f>SUM(B32:H32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1782,11 +1782,11 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <f>SUM(B33:H33)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <f>SUM(B34:H34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1811,12 +1811,10 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
+      <c r="H35"/>
       <c r="I35">
-        <f>SUM(B35:H35)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1826,9 +1824,8 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36"/>
       <c r="I36">
-        <f>SUM(B36:H36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1840,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f>SUM(B37:H37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1852,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <f>SUM(B38:H38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1864,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>SUM(B39:H39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1876,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f>SUM(B40:H40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1888,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f>SUM(B41:H41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1900,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f>SUM(B42:H42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1912,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f>SUM(B43:H43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1920,12 +1917,12 @@
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="G44">
-        <v>1</v>
+      <c r="H44">
+        <v>4</v>
       </c>
       <c r="I44">
-        <f>SUM(B44:H44)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1936,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="I45">
-        <f>SUM(B45:H45)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1945,11 +1942,11 @@
         <v>53</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <f>SUM(B46:H46)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1957,11 +1954,11 @@
         <v>54</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <f>SUM(B47:H47)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1972,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <f>SUM(B48:H48)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1984,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <f>SUM(B49:H49)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1996,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="I50">
-        <f>SUM(B50:H50)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2008,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <f>SUM(B51:H51)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2020,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <f>SUM(B52:H52)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2032,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <f>SUM(B53:H53)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2044,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <f>SUM(B54:H54)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2056,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <f>SUM(B55:H55)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2065,11 +2062,11 @@
         <v>63</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <f>SUM(B56:H56)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2080,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <f>SUM(B57:H57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2092,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <f>SUM(B58:H58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2104,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <f>SUM(B59:H59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2116,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <f>SUM(B60:H60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2128,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <f>SUM(B61:H61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2140,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <f>SUM(B62:H62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2152,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <f>SUM(B63:H63)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2164,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <f>SUM(B64:H64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2176,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <f>SUM(B65:H65)</f>
+        <f t="shared" ref="I65:I79" si="1">SUM(B65:H65)</f>
         <v>1</v>
       </c>
     </row>
@@ -2188,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f>SUM(B66:H66)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2200,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <f>SUM(B67:H67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2212,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f>SUM(B68:H68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2224,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f>SUM(B69:H69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2236,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <f>SUM(B70:H70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2248,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <f>SUM(B71:H71)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2260,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <f>SUM(B72:H72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2272,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <f>SUM(B73:H73)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2284,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <f>SUM(B74:H74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2296,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <f>SUM(B75:H75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2308,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <f>SUM(B76:H76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2320,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <f>SUM(B77:H77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2332,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <f>SUM(B78:H78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2344,56 +2341,44 @@
         <v>1</v>
       </c>
       <c r="I79">
-        <f>SUM(B79:H79)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
         <v>87</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <f>SUM(B80:H80)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <f t="shared" ref="B83:H83" si="0">SUM(B2:B80)</f>
+      <c r="B82">
+        <f t="shared" ref="B82:I82" si="2">SUM(B2:B79)</f>
         <v>6</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="0"/>
+      <c r="C82">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="0"/>
+      <c r="D82">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="0"/>
+      <c r="E82">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="0"/>
+      <c r="F82">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="0"/>
+      <c r="G82">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="0"/>
+      <c r="H82">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="I83">
-        <f>SUM(I2:I80)</f>
+      <c r="I82">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="14490" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I23" si="0">SUM(B2:H2)</f>
         <v>6</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>SUM(B4:H4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f>SUM(B5:H5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <f>SUM(B8:H8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>SUM(B9:H9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f>SUM(B10:H10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <f>SUM(B12:H12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f>SUM(B14:H14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f>SUM(B15:H15)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <f>SUM(B16:H16)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f>SUM(B17:H17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f>SUM(B18:H18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <f>SUM(B19:H19)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <f>SUM(B20:H20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <f>SUM(B21:H21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <f>SUM(B22:H22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f>SUM(B23:H23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I64" si="0">SUM(B24:H24)</f>
+        <f t="shared" ref="I24:I64" si="1">SUM(B24:H24)</f>
         <v>5</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H35"/>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I79" si="1">SUM(B65:H65)</f>
+        <f t="shared" ref="I65:I79" si="2">SUM(B65:H65)</f>
         <v>1</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2350,35 +2350,35 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:I82" si="2">SUM(B2:B79)</f>
+        <f t="shared" ref="B82:I82" si="3">SUM(B2:B79)</f>
         <v>6</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14490" windowHeight="11325"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I23" si="0">SUM(B2:H2)</f>
+        <f>SUM(B2:H2)</f>
         <v>6</v>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:H3)</f>
         <v>6</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:H4)</f>
         <v>3</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:H5)</f>
         <v>3</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:H6)</f>
         <v>4</v>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:H7)</f>
         <v>5</v>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:H8)</f>
         <v>6</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:H9)</f>
         <v>4</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:H10)</f>
         <v>6</v>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:H11)</f>
         <v>5</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:H12)</f>
         <v>5</v>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:H13)</f>
         <v>5</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:H14)</f>
         <v>2</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:H15)</f>
         <v>6</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:H16)</f>
         <v>4</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:H17)</f>
         <v>5</v>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:H18)</f>
         <v>4</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:H19)</f>
         <v>4</v>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:H20)</f>
         <v>2</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:H21)</f>
         <v>3</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:H22)</f>
         <v>3</v>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:H23)</f>
         <v>2</v>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I64" si="1">SUM(B24:H24)</f>
+        <f>SUM(B24:H24)</f>
         <v>5</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f>SUM(B25:H25)</f>
         <v>4</v>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f>SUM(B26:H26)</f>
         <v>4</v>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f>SUM(B27:H27)</f>
         <v>2</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f>SUM(B28:H28)</f>
         <v>4</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f>SUM(B29:H29)</f>
         <v>4</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f>SUM(B30:H30)</f>
         <v>4</v>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f>SUM(B31:H31)</f>
         <v>3</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f>SUM(B32:H32)</f>
         <v>3</v>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f>SUM(B33:H33)</f>
         <v>2</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f>SUM(B34:H34)</f>
         <v>2</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H35"/>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f>SUM(B35:H35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f>SUM(B36:H36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f>SUM(B37:H37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f>SUM(B38:H38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f>SUM(B39:H39)</f>
         <v>1</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f>SUM(B40:H40)</f>
         <v>1</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f>SUM(B41:H41)</f>
         <v>1</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f>SUM(B42:H42)</f>
         <v>1</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f>SUM(B43:H43)</f>
         <v>1</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f>SUM(B44:H44)</f>
         <v>4</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f>SUM(B45:H45)</f>
         <v>4</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f>SUM(B46:H46)</f>
         <v>3</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f>SUM(B47:H47)</f>
         <v>2</v>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f>SUM(B48:H48)</f>
         <v>2</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f>SUM(B49:H49)</f>
         <v>2</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f>SUM(B50:H50)</f>
         <v>2</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f>SUM(B51:H51)</f>
         <v>2</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f>SUM(B52:H52)</f>
         <v>2</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f>SUM(B53:H53)</f>
         <v>2</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f>SUM(B54:H54)</f>
         <v>2</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f>SUM(B55:H55)</f>
         <v>2</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f>SUM(B56:H56)</f>
         <v>1</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f>SUM(B57:H57)</f>
         <v>1</v>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f>SUM(B58:H58)</f>
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f>SUM(B59:H59)</f>
         <v>1</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f>SUM(B60:H60)</f>
         <v>1</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f>SUM(B61:H61)</f>
         <v>1</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f>SUM(B62:H62)</f>
         <v>1</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f>SUM(B63:H63)</f>
         <v>1</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f>SUM(B64:H64)</f>
         <v>1</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I79" si="2">SUM(B65:H65)</f>
+        <f>SUM(B65:H65)</f>
         <v>1</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f>SUM(B66:H66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
+        <f>SUM(B67:H67)</f>
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f>SUM(B68:H68)</f>
         <v>1</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f>SUM(B69:H69)</f>
         <v>1</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f>SUM(B70:H70)</f>
         <v>1</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f>SUM(B71:H71)</f>
         <v>1</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f>SUM(B72:H72)</f>
         <v>1</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
+        <f>SUM(B73:H73)</f>
         <v>1</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f>SUM(B74:H74)</f>
         <v>1</v>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
+        <f>SUM(B75:H75)</f>
         <v>1</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f>SUM(B76:H76)</f>
         <v>1</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f>SUM(B77:H77)</f>
         <v>1</v>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f>SUM(B78:H78)</f>
         <v>1</v>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f>SUM(B79:H79)</f>
         <v>1</v>
       </c>
     </row>
@@ -2350,40 +2350,40 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:I82" si="3">SUM(B2:B79)</f>
+        <f t="shared" ref="B82:I82" si="0">SUM(B2:B79)</f>
         <v>6</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="H82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I80">
+  <sortState ref="A2:I79">
     <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="15825" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>137-No1.Mr</t>
   </si>
   <si>
+    <t>148-大核桃</t>
+  </si>
+  <si>
     <t>149-灰企鹅呆瓜</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>156-Tiao跳猪</t>
   </si>
   <si>
+    <t>150-开飞机的贝塔</t>
+  </si>
+  <si>
     <t>157-#</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
     <t>154-吃鹿的于</t>
   </si>
   <si>
-    <t>148-大核桃</t>
-  </si>
-  <si>
     <t>130-随￥缘</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>148-请叫我阿奎</t>
   </si>
   <si>
+    <t>134-木轩</t>
+  </si>
+  <si>
     <t>157-空泣</t>
   </si>
   <si>
@@ -131,12 +137,6 @@
   </si>
   <si>
     <t>151-suola</t>
-  </si>
-  <si>
-    <t>150-开飞机的贝塔</t>
-  </si>
-  <si>
-    <t>134-木轩</t>
   </si>
   <si>
     <t>145-杜佳捷</t>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1272,11 +1272,11 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I3">
         <f>SUM(B3:H3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1311,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <f>SUM(B4:H4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1380,14 +1380,14 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="I8">
         <f>SUM(B8:H8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1397,26 +1397,26 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I10">
         <f>SUM(B10:H10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1437,25 +1437,31 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>SUM(B11:H11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1469,18 +1475,15 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
-        <v>2</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
         <f>SUM(B13:H13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1488,11 +1491,14 @@
         <v>21</v>
       </c>
       <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
         <f>SUM(B14:H14)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1500,17 +1506,17 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <f>SUM(B15:H15)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1518,14 +1524,11 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1536,14 +1539,11 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <f>SUM(B17:H17)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1557,11 +1557,11 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <f>SUM(B18:H18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1572,10 +1572,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f>SUM(B19:H19)</f>
@@ -1592,9 +1592,12 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
       <c r="I20">
         <f>SUM(B20:H20)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1604,12 +1607,15 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
         <f>SUM(B21:H21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1619,12 +1625,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>2</v>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="I22">
         <f>SUM(B22:H22)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1635,41 +1641,41 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f>SUM(B23:H23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="G24">
-        <v>4</v>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <f>SUM(B24:H24)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="G25">
-        <v>2</v>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>SUM(B25:H25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1677,14 +1683,14 @@
         <v>33</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f>SUM(B26:H26)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1694,9 +1700,12 @@
       <c r="G27">
         <v>2</v>
       </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
       <c r="I27">
         <f>SUM(B27:H27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1704,10 +1713,10 @@
         <v>35</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <f>SUM(B28:H28)</f>
@@ -2351,23 +2360,23 @@
       </c>
       <c r="B82">
         <f t="shared" ref="B82:I82" si="0">SUM(B2:B79)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G82">
         <f t="shared" si="0"/>
@@ -2379,7 +2388,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="11595"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>区服+名字</t>
   </si>
@@ -85,6 +85,9 @@
     <t>149-灰企鹅呆瓜</t>
   </si>
   <si>
+    <t>151-星空</t>
+  </si>
+  <si>
     <t>145-古希腊掌管贫穷(Mr.Go)</t>
   </si>
   <si>
@@ -103,16 +106,19 @@
     <t>154-吃鹿的于</t>
   </si>
   <si>
+    <t>148-请叫我阿奎</t>
+  </si>
+  <si>
     <t>130-随￥缘</t>
   </si>
   <si>
+    <t>134-木轩</t>
+  </si>
+  <si>
     <t>137-神之千手(神之一手)</t>
   </si>
   <si>
-    <t>148-请叫我阿奎</t>
-  </si>
-  <si>
-    <t>134-木轩</t>
+    <t>145-杜佳捷</t>
   </si>
   <si>
     <t>157-空泣</t>
@@ -121,12 +127,12 @@
     <t>148-水煮肉片(数字经济)</t>
   </si>
   <si>
+    <t>145-古月星辰</t>
+  </si>
+  <si>
     <t>142-异界淘金者</t>
   </si>
   <si>
-    <t>145-古月星辰</t>
-  </si>
-  <si>
     <t>154-。马铃薯</t>
   </si>
   <si>
@@ -139,24 +145,30 @@
     <t>151-suola</t>
   </si>
   <si>
-    <t>145-杜佳捷</t>
-  </si>
-  <si>
-    <t>151-星空</t>
+    <t>136-标</t>
+  </si>
+  <si>
+    <t>145-小黑</t>
   </si>
   <si>
     <t>133-抹小布</t>
   </si>
   <si>
-    <t>145-小黑</t>
-  </si>
-  <si>
     <t>136-miko</t>
   </si>
   <si>
+    <t>141-黑色香槟</t>
+  </si>
+  <si>
     <t>137-未雨</t>
   </si>
   <si>
+    <t>148-12345</t>
+  </si>
+  <si>
+    <t>131-神经蛙</t>
+  </si>
+  <si>
     <t>134-跑</t>
   </si>
   <si>
@@ -184,28 +196,37 @@
     <t>160-sky</t>
   </si>
   <si>
+    <t>145-1</t>
+  </si>
+  <si>
     <t>133-杨豆豆</t>
   </si>
   <si>
-    <t>145-1</t>
-  </si>
-  <si>
     <t>139-Sure</t>
   </si>
   <si>
+    <t>145-[永恒]</t>
+  </si>
+  <si>
+    <t>152-养乐多</t>
+  </si>
+  <si>
+    <t>132-YOKE</t>
+  </si>
+  <si>
     <t>135-唔昂 王</t>
   </si>
   <si>
     <t>136-0.o</t>
   </si>
   <si>
+    <t>137-菜的够吊</t>
+  </si>
+  <si>
     <t>138-LEO</t>
   </si>
   <si>
-    <t>141-黑色香槟</t>
-  </si>
-  <si>
-    <t>145-[永恒]</t>
+    <t>142-多幸运</t>
   </si>
   <si>
     <t>145-明</t>
@@ -217,13 +238,13 @@
     <t>146-谢之求学者(念苍生)</t>
   </si>
   <si>
-    <t>152-养乐多</t>
+    <t>150-朱</t>
   </si>
   <si>
     <t>130-自然</t>
   </si>
   <si>
-    <t>132-YOKE</t>
+    <t>133-政杨</t>
   </si>
   <si>
     <t>134-高戈</t>
@@ -232,13 +253,19 @@
     <t>134-破灭</t>
   </si>
   <si>
-    <t>136-标</t>
+    <t>135-常世万法仙君</t>
+  </si>
+  <si>
+    <t>135-卡洛</t>
+  </si>
+  <si>
+    <t>135-真理铁拳</t>
   </si>
   <si>
     <t>136-神经蛙</t>
   </si>
   <si>
-    <t>137-菜的够吊</t>
+    <t>136-OK（开尔文</t>
   </si>
   <si>
     <t>137-神之右手</t>
@@ -247,7 +274,13 @@
     <t>137-随便玩玩</t>
   </si>
   <si>
-    <t>142-多幸运</t>
+    <t>137-星星</t>
+  </si>
+  <si>
+    <t>137-vwafew</t>
+  </si>
+  <si>
+    <t>139-加禾影像|阿</t>
   </si>
   <si>
     <t>142-老猫</t>
@@ -259,10 +292,13 @@
     <t>145-九龙亦云</t>
   </si>
   <si>
+    <t>145-清风</t>
+  </si>
+  <si>
     <t>146-Thor</t>
   </si>
   <si>
-    <t>148-12345</t>
+    <t>148-白夜</t>
   </si>
   <si>
     <t>148-大锅</t>
@@ -277,13 +313,16 @@
     <t>150-夏进</t>
   </si>
   <si>
-    <t>150-朱</t>
+    <t>154-Felix</t>
   </si>
   <si>
     <t>157-动次打次</t>
   </si>
   <si>
     <t>157-寡王</t>
+  </si>
+  <si>
+    <t>157-神经蛙</t>
   </si>
   <si>
     <t>157-躺平的蛙</t>
@@ -1223,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1272,11 +1311,11 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1284,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1297,7 +1336,7 @@
       </c>
       <c r="I3">
         <f>SUM(B3:H3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1311,11 +1350,11 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <f>SUM(B4:H4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1326,11 +1365,11 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f>SUM(B5:H5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1397,6 +1436,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -1408,7 +1450,7 @@
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1418,36 +1460,36 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
         <f>SUM(B10:H10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <f>SUM(B11:H11)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1458,17 +1500,17 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
         <f>SUM(B12:H12)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1478,27 +1520,36 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
         <f>SUM(B13:H13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="F14">
-        <v>4</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f>SUM(B14:H14)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1506,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1516,7 +1567,7 @@
       </c>
       <c r="I15">
         <f>SUM(B15:H15)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1524,11 +1575,17 @@
         <v>23</v>
       </c>
       <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1536,14 +1593,11 @@
         <v>24</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <f>SUM(B17:H17)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1554,14 +1608,14 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>SUM(B18:H18)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1572,14 +1626,11 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <f>SUM(B19:H19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1590,14 +1641,14 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20">
         <f>SUM(B20:H20)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1608,14 +1659,14 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
         <f>SUM(B21:H21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1628,9 +1679,12 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
       <c r="I22">
         <f>SUM(B22:H22)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1640,12 +1694,15 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
         <f>SUM(B23:H23)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1655,12 +1712,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>2</v>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="I24">
         <f>SUM(B24:H24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1671,41 +1728,41 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <f>SUM(B25:H25)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="G26">
-        <v>4</v>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <f>SUM(B26:H26)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="G27">
-        <v>2</v>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f>SUM(B27:H27)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1713,14 +1770,14 @@
         <v>35</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
         <f>SUM(B28:H28)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1728,14 +1785,14 @@
         <v>36</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <f>SUM(B29:H29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1743,14 +1800,14 @@
         <v>37</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f>SUM(B30:H30)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1758,14 +1815,14 @@
         <v>38</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
         <f>SUM(B31:H31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1773,14 +1830,14 @@
         <v>39</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
         <f>SUM(B32:H32)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1791,11 +1848,11 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <f>SUM(B33:H33)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1806,11 +1863,11 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <f>SUM(B34:H34)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1820,10 +1877,12 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35"/>
+      <c r="H35">
+        <v>2</v>
+      </c>
       <c r="I35">
         <f>SUM(B35:H35)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1833,9 +1892,12 @@
       <c r="G36">
         <v>1</v>
       </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
       <c r="I36">
         <f>SUM(B36:H36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1845,9 +1907,12 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="I37">
         <f>SUM(B37:H37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1864,7 +1929,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1876,11 +1941,12 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
+      <c r="H40"/>
       <c r="I40">
         <f>SUM(B40:H40)</f>
         <v>1</v>
@@ -1888,7 +1954,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1900,7 +1966,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1912,7 +1978,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1924,127 +1990,127 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="I44">
         <f>SUM(B44:H44)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="I45">
         <f>SUM(B45:H45)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="I46">
         <f>SUM(B46:H46)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="I47">
         <f>SUM(B47:H47)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="I48">
         <f>SUM(B48:H48)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <f>SUM(B49:H49)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <f>SUM(B50:H50)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <f>SUM(B51:H51)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <f>SUM(B52:H52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <f>SUM(B53:H53)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2056,7 +2122,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2068,103 +2134,103 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <f>SUM(B56:H56)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <f>SUM(B57:H57)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <f>SUM(B58:H58)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <f>SUM(B59:H59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <f>SUM(B60:H60)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <f>SUM(B61:H61)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <f>SUM(B62:H62)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <f>SUM(B63:H63)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2176,7 +2242,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2188,7 +2254,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2200,7 +2266,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2212,7 +2278,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -2224,7 +2290,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2236,7 +2302,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2248,7 +2314,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2260,7 +2326,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2272,7 +2338,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2284,7 +2350,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2296,7 +2362,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -2308,7 +2374,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2320,7 +2386,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2332,7 +2398,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2344,7 +2410,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2354,45 +2420,213 @@
         <v>1</v>
       </c>
     </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f>SUM(B80:H80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <f>SUM(B81:H81)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ref="B82:I82" si="0">SUM(B2:B79)</f>
-        <v>7</v>
-      </c>
-      <c r="C82">
+        <v>88</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f>SUM(B82:H82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f>SUM(B83:H83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <f>SUM(B84:H84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f>SUM(B85:H85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f>SUM(B86:H86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <f>SUM(B87:H87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <f>SUM(B88:H88)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f>SUM(B89:H89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <f>SUM(B90:H90)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f>SUM(B91:H91)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <f>SUM(B92:H92)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f>SUM(B93:H93)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96:I96" si="0">SUM(B2:B93)</f>
+        <v>8</v>
+      </c>
+      <c r="C96">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <f>SUM(F2:F93)</f>
+        <v>32</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G82">
+        <v>64</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H82">
+        <v>128</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I79">
+  <sortState ref="A2:I93">
     <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17895" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>区服+名字</t>
   </si>
@@ -332,6 +332,69 @@
   </si>
   <si>
     <t>总数：</t>
+  </si>
+  <si>
+    <t>第八届</t>
+  </si>
+  <si>
+    <t>旧城之下</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>星空</t>
+  </si>
+  <si>
+    <t>大核桃</t>
+  </si>
+  <si>
+    <t>第七届</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>第六届</t>
+  </si>
+  <si>
+    <t>No1.Mr</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>第五届</t>
+  </si>
+  <si>
+    <t>江南、</t>
+  </si>
+  <si>
+    <t>第四届</t>
+  </si>
+  <si>
+    <t>神瑛</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>老王</t>
+  </si>
+  <si>
+    <t>第三届</t>
+  </si>
+  <si>
+    <t>zwy</t>
+  </si>
+  <si>
+    <t>第二届</t>
+  </si>
+  <si>
+    <t>Tiao跳猪</t>
+  </si>
+  <si>
+    <t>第一届</t>
   </si>
 </sst>
 </file>
@@ -344,8 +407,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -817,138 +888,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,10 +1336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I65" si="0">SUM(B2:H2)</f>
         <v>8</v>
       </c>
     </row>
@@ -1335,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1353,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>SUM(B4:H4)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1368,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <f>SUM(B5:H5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1386,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1404,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1425,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <f>SUM(B8:H8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1449,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f>SUM(B9:H9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1470,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <f>SUM(B10:H10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1488,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1509,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <f>SUM(B12:H12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1530,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1548,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>SUM(B14:H14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1566,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <f>SUM(B15:H15)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1584,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <f>SUM(B16:H16)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1596,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f>SUM(B17:H17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1614,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f>SUM(B18:H18)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1629,7 +1703,7 @@
         <v>4</v>
       </c>
       <c r="I19">
-        <f>SUM(B19:H19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1647,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <f>SUM(B20:H20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1665,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <f>SUM(B21:H21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1683,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="I22">
-        <f>SUM(B22:H22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1701,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <f>SUM(B23:H23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1716,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f>SUM(B24:H24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1731,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="I25">
-        <f>SUM(B25:H25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1746,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <f>SUM(B26:H26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1761,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <f>SUM(B27:H27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1776,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <f>SUM(B28:H28)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1791,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <f>SUM(B29:H29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1806,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <f>SUM(B30:H30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1821,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f>SUM(B31:H31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1836,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <f>SUM(B32:H32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1851,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <f>SUM(B33:H33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1866,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <f>SUM(B34:H34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1881,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <f>SUM(B35:H35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1896,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <f>SUM(B36:H36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1911,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <f>SUM(B37:H37)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1923,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <f>SUM(B38:H38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1935,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <f>SUM(B39:H39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1948,7 +2022,7 @@
       </c>
       <c r="H40"/>
       <c r="I40">
-        <f>SUM(B40:H40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1960,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f>SUM(B41:H41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1972,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f>SUM(B42:H42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1984,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f>SUM(B43:H43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1996,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <f>SUM(B44:H44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2008,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f>SUM(B45:H45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2020,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <f>SUM(B46:H46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2032,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <f>SUM(B47:H47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2044,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <f>SUM(B48:H48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2056,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="I49">
-        <f>SUM(B49:H49)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2068,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="I50">
-        <f>SUM(B50:H50)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2080,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <f>SUM(B51:H51)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2092,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="I52">
-        <f>SUM(B52:H52)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2104,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="I53">
-        <f>SUM(B53:H53)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2116,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <f>SUM(B54:H54)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2128,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <f>SUM(B55:H55)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2140,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <f>SUM(B56:H56)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2152,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="I57">
-        <f>SUM(B57:H57)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2164,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <f>SUM(B58:H58)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2176,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="I59">
-        <f>SUM(B59:H59)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2188,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="I60">
-        <f>SUM(B60:H60)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2200,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <f>SUM(B61:H61)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2212,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="I62">
-        <f>SUM(B62:H62)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2224,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="I63">
-        <f>SUM(B63:H63)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2236,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <f>SUM(B64:H64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2248,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <f>SUM(B65:H65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2260,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f>SUM(B66:H66)</f>
+        <f t="shared" ref="I66:I93" si="1">SUM(B66:H66)</f>
         <v>1</v>
       </c>
     </row>
@@ -2272,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <f>SUM(B67:H67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2284,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f>SUM(B68:H68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2296,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f>SUM(B69:H69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2308,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <f>SUM(B70:H70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2320,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <f>SUM(B71:H71)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2332,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <f>SUM(B72:H72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2344,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <f>SUM(B73:H73)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2356,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <f>SUM(B74:H74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2368,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <f>SUM(B75:H75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2380,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <f>SUM(B76:H76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2392,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <f>SUM(B77:H77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2404,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <f>SUM(B78:H78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2416,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="I79">
-        <f>SUM(B79:H79)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2428,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I80">
-        <f>SUM(B80:H80)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2440,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <f>SUM(B81:H81)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2452,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="I82">
-        <f>SUM(B82:H82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2464,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <f>SUM(B83:H83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2476,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="I84">
-        <f>SUM(B84:H84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2488,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="I85">
-        <f>SUM(B85:H85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2500,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="I86">
-        <f>SUM(B86:H86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2512,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="I87">
-        <f>SUM(B87:H87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2524,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="I88">
-        <f>SUM(B88:H88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2536,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="I89">
-        <f>SUM(B89:H89)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2548,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="I90">
-        <f>SUM(B90:H90)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2560,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <f>SUM(B91:H91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2572,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="I92">
-        <f>SUM(B92:H92)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2584,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="I93">
-        <f>SUM(B93:H93)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2593,36 +2667,186 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <f t="shared" ref="B96:I96" si="0">SUM(B2:B93)</f>
+        <f t="shared" ref="B96:I96" si="2">SUM(B2:B93)</f>
         <v>8</v>
       </c>
       <c r="C96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F96">
-        <f>SUM(F2:F93)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="G96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="H96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="I96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17895" windowHeight="13200"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
   <si>
     <t>区服+名字</t>
   </si>
@@ -58,291 +58,315 @@
     <t>总数</t>
   </si>
   <si>
+    <t>129-WZ(旧城之下)</t>
+  </si>
+  <si>
+    <t>130-随￥缘</t>
+  </si>
+  <si>
+    <t>130-自然</t>
+  </si>
+  <si>
+    <t>131-孔琦</t>
+  </si>
+  <si>
+    <t>131-神经蛙</t>
+  </si>
+  <si>
+    <t>131-朝闻道</t>
+  </si>
+  <si>
+    <t>132-YOKE</t>
+  </si>
+  <si>
+    <t>133-抹小布</t>
+  </si>
+  <si>
+    <t>133-神经蛙</t>
+  </si>
+  <si>
+    <t>133-杨豆豆</t>
+  </si>
+  <si>
+    <t>133-叶小怪</t>
+  </si>
+  <si>
+    <t>133-政杨</t>
+  </si>
+  <si>
+    <t>134-高戈</t>
+  </si>
+  <si>
+    <t>134-木轩</t>
+  </si>
+  <si>
+    <t>134-跑</t>
+  </si>
+  <si>
+    <t>134-破灭</t>
+  </si>
+  <si>
+    <t>135-常世万法仙君</t>
+  </si>
+  <si>
+    <t>135-卡洛</t>
+  </si>
+  <si>
+    <t>135-唔昂 王</t>
+  </si>
+  <si>
+    <t>135-真理铁拳</t>
+  </si>
+  <si>
+    <t>136-0.o</t>
+  </si>
+  <si>
+    <t>136-miko</t>
+  </si>
+  <si>
+    <t>136-OK（开尔文</t>
+  </si>
+  <si>
+    <t>136-标</t>
+  </si>
+  <si>
+    <t>136-神经蛙</t>
+  </si>
+  <si>
+    <t>136-植物园园长</t>
+  </si>
+  <si>
+    <t>137-No1.Mr</t>
+  </si>
+  <si>
+    <t>137-vwafew</t>
+  </si>
+  <si>
+    <t>137-菜的够吊</t>
+  </si>
+  <si>
+    <t>137-神之千手(神之一手)</t>
+  </si>
+  <si>
+    <t>137-神之右手</t>
+  </si>
+  <si>
+    <t>137-随便玩玩</t>
+  </si>
+  <si>
+    <t>137-王熠</t>
+  </si>
+  <si>
+    <t>137-未雨</t>
+  </si>
+  <si>
+    <t>137-星星</t>
+  </si>
+  <si>
+    <t>137-鹰の一手</t>
+  </si>
+  <si>
+    <t>138-LEO</t>
+  </si>
+  <si>
+    <t>139-Lyric</t>
+  </si>
+  <si>
+    <t>139-Sure</t>
+  </si>
+  <si>
+    <t>139-加禾影像|阿</t>
+  </si>
+  <si>
+    <t>139-蒋凌峰</t>
+  </si>
+  <si>
+    <t>141-黑色香槟</t>
+  </si>
+  <si>
+    <t>142-Limere</t>
+  </si>
+  <si>
+    <t>142-多幸运</t>
+  </si>
+  <si>
+    <t>142-老猫</t>
+  </si>
+  <si>
+    <t>142-异界淘金者</t>
+  </si>
+  <si>
+    <t>144-zwy(九霄环佩)</t>
+  </si>
+  <si>
+    <t>144-神经蛙</t>
+  </si>
+  <si>
+    <t>145-[永恒]</t>
+  </si>
+  <si>
+    <t>145-1</t>
+  </si>
+  <si>
+    <t>145-杜佳捷</t>
+  </si>
+  <si>
+    <t>145-古希腊掌管贫穷(Mr.Go)</t>
+  </si>
+  <si>
+    <t>145-古月星辰</t>
+  </si>
+  <si>
+    <t>145-九龙亦云</t>
+  </si>
+  <si>
+    <t>145-明</t>
+  </si>
+  <si>
+    <t>145-清风</t>
+  </si>
+  <si>
+    <t>145-小黑</t>
+  </si>
+  <si>
+    <t>145-夜的第七z</t>
+  </si>
+  <si>
+    <t>146-KB</t>
+  </si>
+  <si>
+    <t>146-Thor</t>
+  </si>
+  <si>
+    <t>146-江南</t>
+  </si>
+  <si>
+    <t>146-谢之求学者(念苍生)</t>
+  </si>
+  <si>
+    <t>147-没有nic</t>
+  </si>
+  <si>
+    <t>148-12345</t>
+  </si>
+  <si>
+    <t>148-白夜</t>
+  </si>
+  <si>
+    <t>148-大锅</t>
+  </si>
+  <si>
+    <t>148-大核桃</t>
+  </si>
+  <si>
+    <t>148-请叫我阿奎</t>
+  </si>
+  <si>
+    <t>148-水煮肉片(数字经济)</t>
+  </si>
+  <si>
+    <t>148-淘汰郎</t>
+  </si>
+  <si>
+    <t>148-玩玩</t>
+  </si>
+  <si>
+    <t>149-灰企鹅呆瓜</t>
+  </si>
+  <si>
+    <t>149-柒柒</t>
+  </si>
+  <si>
+    <t>150-开飞机的贝塔</t>
+  </si>
+  <si>
+    <t>150-夏进</t>
+  </si>
+  <si>
+    <t>150-朱</t>
+  </si>
+  <si>
+    <t>151-suola</t>
+  </si>
+  <si>
+    <t>151-星空</t>
+  </si>
+  <si>
+    <t>152-养乐多</t>
+  </si>
+  <si>
+    <t>154-。马铃薯</t>
+  </si>
+  <si>
+    <t>154-Felix</t>
+  </si>
+  <si>
+    <t>154-吃鹿的于</t>
+  </si>
+  <si>
+    <t>155-锋云</t>
+  </si>
+  <si>
+    <t>156-Tiao跳猪</t>
+  </si>
+  <si>
+    <t>157-#</t>
+  </si>
+  <si>
+    <t>157-动次打次</t>
+  </si>
+  <si>
     <t>157-段</t>
   </si>
   <si>
-    <t>129-WZ(旧城之下)</t>
-  </si>
-  <si>
-    <t>146-KB</t>
+    <t>157-寡王</t>
+  </si>
+  <si>
+    <t>157-空泣</t>
+  </si>
+  <si>
+    <t>157-神经蛙</t>
+  </si>
+  <si>
+    <t>157-躺平的蛙</t>
+  </si>
+  <si>
+    <t>157-我姓孟.</t>
+  </si>
+  <si>
+    <t>158-nn</t>
   </si>
   <si>
     <t>159-神瑛</t>
   </si>
   <si>
-    <t>144-zwy(九霄环佩)</t>
-  </si>
-  <si>
-    <t>146-江南</t>
-  </si>
-  <si>
-    <t>137-No1.Mr</t>
-  </si>
-  <si>
-    <t>148-大核桃</t>
-  </si>
-  <si>
-    <t>149-灰企鹅呆瓜</t>
-  </si>
-  <si>
-    <t>151-星空</t>
-  </si>
-  <si>
-    <t>145-古希腊掌管贫穷(Mr.Go)</t>
-  </si>
-  <si>
-    <t>156-Tiao跳猪</t>
-  </si>
-  <si>
-    <t>150-开飞机的贝塔</t>
-  </si>
-  <si>
-    <t>157-#</t>
-  </si>
-  <si>
-    <t>137-鹰の一手</t>
-  </si>
-  <si>
-    <t>154-吃鹿的于</t>
-  </si>
-  <si>
-    <t>148-请叫我阿奎</t>
-  </si>
-  <si>
-    <t>130-随￥缘</t>
-  </si>
-  <si>
-    <t>134-木轩</t>
-  </si>
-  <si>
-    <t>137-神之千手(神之一手)</t>
-  </si>
-  <si>
-    <t>145-杜佳捷</t>
-  </si>
-  <si>
-    <t>157-空泣</t>
-  </si>
-  <si>
-    <t>148-水煮肉片(数字经济)</t>
-  </si>
-  <si>
-    <t>145-古月星辰</t>
-  </si>
-  <si>
-    <t>142-异界淘金者</t>
-  </si>
-  <si>
-    <t>154-。马铃薯</t>
-  </si>
-  <si>
-    <t>131-孔琦</t>
-  </si>
-  <si>
-    <t>133-叶小怪</t>
-  </si>
-  <si>
-    <t>151-suola</t>
-  </si>
-  <si>
-    <t>136-标</t>
-  </si>
-  <si>
-    <t>145-小黑</t>
-  </si>
-  <si>
-    <t>133-抹小布</t>
-  </si>
-  <si>
-    <t>136-miko</t>
-  </si>
-  <si>
-    <t>141-黑色香槟</t>
-  </si>
-  <si>
-    <t>137-未雨</t>
-  </si>
-  <si>
-    <t>148-12345</t>
-  </si>
-  <si>
-    <t>131-神经蛙</t>
-  </si>
-  <si>
-    <t>134-跑</t>
-  </si>
-  <si>
-    <t>136-植物园园长</t>
-  </si>
-  <si>
-    <t>137-王熠</t>
-  </si>
-  <si>
-    <t>139-Lyric</t>
-  </si>
-  <si>
-    <t>142-Limere</t>
-  </si>
-  <si>
-    <t>147-没有nic</t>
-  </si>
-  <si>
-    <t>148-淘汰郎</t>
-  </si>
-  <si>
-    <t>158-nn</t>
+    <t>159-叶随清风</t>
   </si>
   <si>
     <t>160-sky</t>
   </si>
   <si>
-    <t>145-1</t>
-  </si>
-  <si>
-    <t>133-杨豆豆</t>
-  </si>
-  <si>
-    <t>139-Sure</t>
-  </si>
-  <si>
-    <t>145-[永恒]</t>
-  </si>
-  <si>
-    <t>152-养乐多</t>
-  </si>
-  <si>
-    <t>132-YOKE</t>
-  </si>
-  <si>
-    <t>135-唔昂 王</t>
-  </si>
-  <si>
-    <t>136-0.o</t>
-  </si>
-  <si>
-    <t>137-菜的够吊</t>
-  </si>
-  <si>
-    <t>138-LEO</t>
-  </si>
-  <si>
-    <t>142-多幸运</t>
-  </si>
-  <si>
-    <t>145-明</t>
-  </si>
-  <si>
-    <t>145-夜的第七z</t>
-  </si>
-  <si>
-    <t>146-谢之求学者(念苍生)</t>
-  </si>
-  <si>
-    <t>150-朱</t>
-  </si>
-  <si>
-    <t>130-自然</t>
-  </si>
-  <si>
-    <t>133-政杨</t>
-  </si>
-  <si>
-    <t>134-高戈</t>
-  </si>
-  <si>
-    <t>134-破灭</t>
-  </si>
-  <si>
-    <t>135-常世万法仙君</t>
-  </si>
-  <si>
-    <t>135-卡洛</t>
-  </si>
-  <si>
-    <t>135-真理铁拳</t>
-  </si>
-  <si>
-    <t>136-神经蛙</t>
-  </si>
-  <si>
-    <t>136-OK（开尔文</t>
-  </si>
-  <si>
-    <t>137-神之右手</t>
-  </si>
-  <si>
-    <t>137-随便玩玩</t>
-  </si>
-  <si>
-    <t>137-星星</t>
-  </si>
-  <si>
-    <t>137-vwafew</t>
-  </si>
-  <si>
-    <t>139-加禾影像|阿</t>
-  </si>
-  <si>
-    <t>142-老猫</t>
-  </si>
-  <si>
-    <t>144-神经蛙</t>
-  </si>
-  <si>
-    <t>145-九龙亦云</t>
-  </si>
-  <si>
-    <t>145-清风</t>
-  </si>
-  <si>
-    <t>146-Thor</t>
-  </si>
-  <si>
-    <t>148-白夜</t>
-  </si>
-  <si>
-    <t>148-大锅</t>
-  </si>
-  <si>
-    <t>148-玩玩</t>
-  </si>
-  <si>
-    <t>149-柒柒</t>
-  </si>
-  <si>
-    <t>150-夏进</t>
-  </si>
-  <si>
-    <t>154-Felix</t>
-  </si>
-  <si>
-    <t>157-动次打次</t>
-  </si>
-  <si>
-    <t>157-寡王</t>
-  </si>
-  <si>
-    <t>157-神经蛙</t>
-  </si>
-  <si>
-    <t>157-躺平的蛙</t>
-  </si>
-  <si>
-    <t>157-我姓孟.</t>
-  </si>
-  <si>
     <t>总数：</t>
   </si>
   <si>
+    <t>第九届</t>
+  </si>
+  <si>
+    <t>旧城之下</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>阿奎</t>
+  </si>
+  <si>
     <t>第八届</t>
   </si>
   <si>
-    <t>旧城之下</t>
-  </si>
-  <si>
-    <t>段</t>
-  </si>
-  <si>
     <t>星空</t>
   </si>
   <si>
@@ -374,9 +398,6 @@
   </si>
   <si>
     <t>神瑛</t>
-  </si>
-  <si>
-    <t>企鹅</t>
   </si>
   <si>
     <t>老王</t>
@@ -1336,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1382,248 +1403,176 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="I2">
-        <f t="shared" ref="I2:I65" si="0">SUM(B2:H2)</f>
-        <v>8</v>
+        <f>SUM(B2:H2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B3:H3)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="H4">
+        <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B4:H4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="G5">
+        <v>4</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B5:H5)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B6:H6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B7:H7)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B8:H8)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f>SUM(B9:H9)</f>
         <v>4</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B10:H10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B11:H11)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(B12:H12)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B13:H13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B14:H14)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1631,143 +1580,108 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B15:H15)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16"/>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B16:H16)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="F17">
-        <v>2</v>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B17:H17)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B18:H18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
+      <c r="H19">
+        <v>2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B19:H19)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B20:H20)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B21:H21)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
       <c r="H22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B22:H22)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
       <c r="G23">
         <v>1</v>
       </c>
@@ -1775,119 +1689,113 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B23:H23)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B24:H24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
-        <v>1</v>
+      <c r="G25">
+        <v>2</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f>SUM(B25:H25)</f>
         <v>4</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B26:H26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B27:H27)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>35</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
       <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B28:H28)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B29:H29)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B30:H30)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="G31">
         <v>2</v>
       </c>
@@ -1895,38 +1803,32 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B31:H31)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(B32:H32)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B33:H33)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1936,12 +1838,9 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B34:H34)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1952,906 +1851,1108 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B35:H35)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B36:H36)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>44</v>
       </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B37:H37)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="G38">
-        <v>1</v>
+      <c r="H38">
+        <v>2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B38:H38)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f>SUM(B39:H39)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40"/>
+        <v>47</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B40:H40)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41">
+        <v>48</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f>SUM(B41:H41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42">
+        <v>49</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f>SUM(B42:H42)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B43:H43)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B44:H44)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B45:H45)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46">
+        <v>53</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f>SUM(B46:H46)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B47:H47)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B48:H48)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>SUM(B49:H49)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B50:H50)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B51:H51)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B52:H52)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(B53:H53)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B54:H54)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B55:H55)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f>SUM(B56:H56)</f>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B57:H57)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B58:H58)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f>SUM(B59:H59)</f>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B60:H60)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B61:H61)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(B62:H62)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f>SUM(B63:H63)</f>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64">
+        <v>71</v>
+      </c>
+      <c r="G64">
         <v>1</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f>SUM(B64:H64)</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B65:H65)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I93" si="1">SUM(B66:H66)</f>
+        <f>SUM(B66:H66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f>SUM(B67:H67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B68:H68)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B69:H69)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70">
+        <v>77</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>1</v>
       </c>
       <c r="I70">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B70:H70)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71">
+        <v>78</v>
+      </c>
+      <c r="G71">
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f>SUM(B71:H71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
+        <f>SUM(B72:H72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B73:H73)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f>SUM(B74:H74)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B75:H75)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f>SUM(B76:H76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B77:H77)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B78:H78)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B79:H79)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B80:H80)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B81:H81)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <f>SUM(B82:H82)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B83:H83)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <f>SUM(B84:H84)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B85:H85)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B86:H86)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
+        <f>SUM(B87:H87)</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B88:H88)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
+        <f>SUM(B89:H89)</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B90:H90)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <f>SUM(B91:H91)</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B92:H92)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(B93:H93)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <f>SUM(B94:H94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <f>SUM(B95:H95)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96">
-        <f t="shared" ref="B96:I96" si="2">SUM(B2:B93)</f>
-        <v>8</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H96">
-        <f t="shared" si="2"/>
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1" t="s">
+        <f>SUM(B96:H96)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f>SUM(B97:H97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100:I100" si="0">SUM(B2:B97)</f>
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" t="s">
-        <v>112</v>
-      </c>
-      <c r="E103" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E104" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
         <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E106" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
         <v>118</v>
       </c>
-      <c r="E107" t="s">
-        <v>102</v>
+      <c r="D112" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I93">
-    <sortCondition ref="B2" descending="1"/>
+    <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/all_count.xlsx
@@ -58,292 +58,292 @@
     <t>总数</t>
   </si>
   <si>
+    <t>157-段</t>
+  </si>
+  <si>
     <t>129-WZ(旧城之下)</t>
   </si>
   <si>
+    <t>146-KB</t>
+  </si>
+  <si>
+    <t>159-神瑛</t>
+  </si>
+  <si>
+    <t>144-zwy(九霄环佩)</t>
+  </si>
+  <si>
+    <t>149-灰企鹅呆瓜</t>
+  </si>
+  <si>
+    <t>146-江南</t>
+  </si>
+  <si>
+    <t>137-No1.Mr</t>
+  </si>
+  <si>
+    <t>148-大核桃</t>
+  </si>
+  <si>
+    <t>151-星空</t>
+  </si>
+  <si>
+    <t>145-古希腊掌管贫穷(Mr.Go)</t>
+  </si>
+  <si>
+    <t>148-请叫我阿奎</t>
+  </si>
+  <si>
+    <t>156-Tiao跳猪</t>
+  </si>
+  <si>
+    <t>150-开飞机的贝塔</t>
+  </si>
+  <si>
+    <t>157-#</t>
+  </si>
+  <si>
+    <t>137-鹰の一手</t>
+  </si>
+  <si>
+    <t>154-吃鹿的于</t>
+  </si>
+  <si>
     <t>130-随￥缘</t>
   </si>
   <si>
+    <t>145-杜佳捷</t>
+  </si>
+  <si>
+    <t>134-木轩</t>
+  </si>
+  <si>
+    <t>137-神之千手(神之一手)</t>
+  </si>
+  <si>
+    <t>145-古月星辰</t>
+  </si>
+  <si>
+    <t>157-空泣</t>
+  </si>
+  <si>
+    <t>148-水煮肉片(数字经济)</t>
+  </si>
+  <si>
+    <t>142-异界淘金者</t>
+  </si>
+  <si>
+    <t>154-。马铃薯</t>
+  </si>
+  <si>
+    <t>131-孔琦</t>
+  </si>
+  <si>
+    <t>133-叶小怪</t>
+  </si>
+  <si>
+    <t>151-suola</t>
+  </si>
+  <si>
+    <t>145-小黑</t>
+  </si>
+  <si>
+    <t>136-标</t>
+  </si>
+  <si>
+    <t>131-神经蛙</t>
+  </si>
+  <si>
+    <t>142-Limere</t>
+  </si>
+  <si>
+    <t>145-1</t>
+  </si>
+  <si>
+    <t>133-抹小布</t>
+  </si>
+  <si>
+    <t>136-miko</t>
+  </si>
+  <si>
+    <t>141-黑色香槟</t>
+  </si>
+  <si>
+    <t>148-12345</t>
+  </si>
+  <si>
+    <t>137-未雨</t>
+  </si>
+  <si>
+    <t>134-跑</t>
+  </si>
+  <si>
+    <t>136-植物园园长</t>
+  </si>
+  <si>
+    <t>137-王熠</t>
+  </si>
+  <si>
+    <t>139-Lyric</t>
+  </si>
+  <si>
+    <t>147-没有nic</t>
+  </si>
+  <si>
+    <t>148-淘汰郎</t>
+  </si>
+  <si>
+    <t>158-nn</t>
+  </si>
+  <si>
+    <t>160-sky</t>
+  </si>
+  <si>
+    <t>133-杨豆豆</t>
+  </si>
+  <si>
+    <t>139-Sure</t>
+  </si>
+  <si>
+    <t>145-[永恒]</t>
+  </si>
+  <si>
+    <t>142-多幸运</t>
+  </si>
+  <si>
+    <t>152-养乐多</t>
+  </si>
+  <si>
     <t>130-自然</t>
   </si>
   <si>
-    <t>131-孔琦</t>
-  </si>
-  <si>
-    <t>131-神经蛙</t>
+    <t>132-YOKE</t>
+  </si>
+  <si>
+    <t>135-卡洛</t>
+  </si>
+  <si>
+    <t>135-唔昂 王</t>
+  </si>
+  <si>
+    <t>136-0.o</t>
+  </si>
+  <si>
+    <t>137-菜的够吊</t>
+  </si>
+  <si>
+    <t>138-LEO</t>
+  </si>
+  <si>
+    <t>145-明</t>
+  </si>
+  <si>
+    <t>145-夜的第七z</t>
+  </si>
+  <si>
+    <t>146-谢之求学者(念苍生)</t>
+  </si>
+  <si>
+    <t>150-朱</t>
+  </si>
+  <si>
+    <t>157-躺平的蛙</t>
   </si>
   <si>
     <t>131-朝闻道</t>
   </si>
   <si>
-    <t>132-YOKE</t>
-  </si>
-  <si>
-    <t>133-抹小布</t>
-  </si>
-  <si>
     <t>133-神经蛙</t>
   </si>
   <si>
-    <t>133-杨豆豆</t>
-  </si>
-  <si>
-    <t>133-叶小怪</t>
-  </si>
-  <si>
     <t>133-政杨</t>
   </si>
   <si>
     <t>134-高戈</t>
   </si>
   <si>
-    <t>134-木轩</t>
-  </si>
-  <si>
-    <t>134-跑</t>
-  </si>
-  <si>
     <t>134-破灭</t>
   </si>
   <si>
     <t>135-常世万法仙君</t>
   </si>
   <si>
-    <t>135-卡洛</t>
-  </si>
-  <si>
-    <t>135-唔昂 王</t>
-  </si>
-  <si>
     <t>135-真理铁拳</t>
   </si>
   <si>
-    <t>136-0.o</t>
-  </si>
-  <si>
-    <t>136-miko</t>
-  </si>
-  <si>
     <t>136-OK（开尔文</t>
   </si>
   <si>
-    <t>136-标</t>
-  </si>
-  <si>
     <t>136-神经蛙</t>
   </si>
   <si>
-    <t>136-植物园园长</t>
-  </si>
-  <si>
-    <t>137-No1.Mr</t>
-  </si>
-  <si>
     <t>137-vwafew</t>
   </si>
   <si>
-    <t>137-菜的够吊</t>
-  </si>
-  <si>
-    <t>137-神之千手(神之一手)</t>
-  </si>
-  <si>
     <t>137-神之右手</t>
   </si>
   <si>
     <t>137-随便玩玩</t>
   </si>
   <si>
-    <t>137-王熠</t>
-  </si>
-  <si>
-    <t>137-未雨</t>
-  </si>
-  <si>
     <t>137-星星</t>
   </si>
   <si>
-    <t>137-鹰の一手</t>
-  </si>
-  <si>
-    <t>138-LEO</t>
-  </si>
-  <si>
-    <t>139-Lyric</t>
-  </si>
-  <si>
-    <t>139-Sure</t>
-  </si>
-  <si>
     <t>139-加禾影像|阿</t>
   </si>
   <si>
     <t>139-蒋凌峰</t>
   </si>
   <si>
-    <t>141-黑色香槟</t>
-  </si>
-  <si>
-    <t>142-Limere</t>
-  </si>
-  <si>
-    <t>142-多幸运</t>
-  </si>
-  <si>
     <t>142-老猫</t>
   </si>
   <si>
-    <t>142-异界淘金者</t>
-  </si>
-  <si>
-    <t>144-zwy(九霄环佩)</t>
-  </si>
-  <si>
     <t>144-神经蛙</t>
   </si>
   <si>
-    <t>145-[永恒]</t>
-  </si>
-  <si>
-    <t>145-1</t>
-  </si>
-  <si>
-    <t>145-杜佳捷</t>
-  </si>
-  <si>
-    <t>145-古希腊掌管贫穷(Mr.Go)</t>
-  </si>
-  <si>
-    <t>145-古月星辰</t>
-  </si>
-  <si>
     <t>145-九龙亦云</t>
   </si>
   <si>
-    <t>145-明</t>
-  </si>
-  <si>
     <t>145-清风</t>
   </si>
   <si>
-    <t>145-小黑</t>
-  </si>
-  <si>
-    <t>145-夜的第七z</t>
-  </si>
-  <si>
-    <t>146-KB</t>
-  </si>
-  <si>
     <t>146-Thor</t>
   </si>
   <si>
-    <t>146-江南</t>
-  </si>
-  <si>
-    <t>146-谢之求学者(念苍生)</t>
-  </si>
-  <si>
-    <t>147-没有nic</t>
-  </si>
-  <si>
-    <t>148-12345</t>
-  </si>
-  <si>
     <t>148-白夜</t>
   </si>
   <si>
     <t>148-大锅</t>
   </si>
   <si>
-    <t>148-大核桃</t>
-  </si>
-  <si>
-    <t>148-请叫我阿奎</t>
-  </si>
-  <si>
-    <t>148-水煮肉片(数字经济)</t>
-  </si>
-  <si>
-    <t>148-淘汰郎</t>
-  </si>
-  <si>
     <t>148-玩玩</t>
   </si>
   <si>
-    <t>149-灰企鹅呆瓜</t>
-  </si>
-  <si>
     <t>149-柒柒</t>
   </si>
   <si>
-    <t>150-开飞机的贝塔</t>
-  </si>
-  <si>
     <t>150-夏进</t>
   </si>
   <si>
-    <t>150-朱</t>
-  </si>
-  <si>
-    <t>151-suola</t>
-  </si>
-  <si>
-    <t>151-星空</t>
-  </si>
-  <si>
-    <t>152-养乐多</t>
-  </si>
-  <si>
-    <t>154-。马铃薯</t>
-  </si>
-  <si>
     <t>154-Felix</t>
   </si>
   <si>
-    <t>154-吃鹿的于</t>
-  </si>
-  <si>
     <t>155-锋云</t>
   </si>
   <si>
-    <t>156-Tiao跳猪</t>
-  </si>
-  <si>
-    <t>157-#</t>
-  </si>
-  <si>
     <t>157-动次打次</t>
   </si>
   <si>
-    <t>157-段</t>
-  </si>
-  <si>
     <t>157-寡王</t>
   </si>
   <si>
-    <t>157-空泣</t>
-  </si>
-  <si>
     <t>157-神经蛙</t>
   </si>
   <si>
-    <t>157-躺平的蛙</t>
-  </si>
-  <si>
     <t>157-我姓孟.</t>
   </si>
   <si>
-    <t>158-nn</t>
-  </si>
-  <si>
-    <t>159-神瑛</t>
-  </si>
-  <si>
     <t>159-叶随清风</t>
-  </si>
-  <si>
-    <t>160-sky</t>
   </si>
   <si>
     <t>总数：</t>
@@ -1359,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,16 +1403,10 @@
         <v>9</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
@@ -1423,113 +1417,176 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="I3">
         <f>SUM(B3:H3)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>2</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="I4">
         <f>SUM(B4:H4)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
         <f>SUM(B5:H5)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f>SUM(B6:H6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
         <f>SUM(B7:H7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
         <f>SUM(B8:H8)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
         <f>SUM(B10:H10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
       <c r="H11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <f>SUM(B11:H11)</f>
@@ -1540,225 +1597,290 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
         <f>SUM(B12:H12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
         <f>SUM(B13:H13)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>21</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <f>SUM(B14:H14)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f>SUM(B15:H15)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>23</v>
       </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16"/>
+      <c r="H16">
+        <v>2</v>
+      </c>
       <c r="I16">
         <f>SUM(B16:H16)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>24</v>
       </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <f>SUM(B17:H17)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="F18">
+        <v>2</v>
       </c>
       <c r="I18">
         <f>SUM(B18:H18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="H19">
-        <v>2</v>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="I19">
         <f>SUM(B19:H19)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>27</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <f>SUM(B20:H20)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <f>SUM(B21:H21)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>29</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
         <f>SUM(B22:H22)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>30</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <f>SUM(B23:H23)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>31</v>
       </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <f>SUM(B24:H24)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>32</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>SUM(B25:H25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>33</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <f>SUM(B26:H26)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="G27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
         <f>SUM(B27:H27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
         <v>3</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
       </c>
       <c r="I28">
         <f>SUM(B28:H28)</f>
@@ -1769,38 +1891,41 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <f>SUM(B29:H29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>37</v>
       </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f>SUM(B30:H30)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <f>SUM(B31:H31)</f>
@@ -1811,24 +1936,27 @@
       <c r="A32" t="s">
         <v>39</v>
       </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <f>SUM(B32:H32)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="G33">
+        <v>2</v>
       </c>
       <c r="I33">
         <f>SUM(B33:H33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1836,11 +1964,11 @@
         <v>41</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <f>SUM(B34:H34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1851,53 +1979,56 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <f>SUM(B35:H35)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>43</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <f>SUM(B36:H36)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
         <f>SUM(B37:H37)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>45</v>
       </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
         <f>SUM(B38:H38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1907,30 +2038,37 @@
       <c r="G39">
         <v>1</v>
       </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
       <c r="I39">
         <f>SUM(B39:H39)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>47</v>
       </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
       <c r="H40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <f>SUM(B40:H40)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41"/>
       <c r="I41">
         <f>SUM(B41:H41)</f>
         <v>1</v>
@@ -1940,7 +2078,7 @@
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="H42">
+      <c r="G42">
         <v>1</v>
       </c>
       <c r="I42">
@@ -1955,12 +2093,9 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
       <c r="I43">
         <f>SUM(B43:H43)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1968,30 +2103,30 @@
         <v>51</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <f>SUM(B44:H44)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="H45">
-        <v>3</v>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="I45">
         <f>SUM(B45:H45)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="H46">
+      <c r="G46">
         <v>1</v>
       </c>
       <c r="I46">
@@ -2003,33 +2138,24 @@
       <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="I47">
         <f>SUM(B47:H47)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="I48">
         <f>SUM(B48:H48)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2037,11 +2163,11 @@
         <v>56</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <f>SUM(B49:H49)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2060,72 +2186,48 @@
       <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
       <c r="H51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <f>SUM(B51:H51)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
       <c r="H52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <f>SUM(B52:H52)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
+      <c r="H53">
         <v>3</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
       </c>
       <c r="I53">
         <f>SUM(B53:H53)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <f>SUM(B54:H54)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2133,11 +2235,11 @@
         <v>62</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <f>SUM(B55:H55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2157,26 +2259,23 @@
         <v>64</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <f>SUM(B57:H57)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <f>SUM(B58:H58)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2195,21 +2294,12 @@
       <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
+      <c r="H60">
+        <v>2</v>
       </c>
       <c r="I60">
         <f>SUM(B60:H60)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2217,29 +2307,23 @@
         <v>68</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <f>SUM(B61:H61)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
         <f>SUM(B62:H62)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2258,27 +2342,24 @@
       <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="G64">
-        <v>1</v>
+      <c r="H64">
+        <v>2</v>
       </c>
       <c r="I64">
         <f>SUM(B64:H64)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
         <f>SUM(B65:H65)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2309,67 +2390,43 @@
       <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68">
-        <v>4</v>
-      </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
         <f>SUM(B68:H68)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>76</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
         <f>SUM(B69:H69)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>77</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
+      <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
         <f>SUM(B70:H70)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
@@ -2393,21 +2450,12 @@
       <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
         <f>SUM(B73:H73)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2426,18 +2474,12 @@
       <c r="A75" t="s">
         <v>82</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
         <f>SUM(B75:H75)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2457,44 +2499,35 @@
         <v>84</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <f>SUM(B77:H77)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>85</v>
       </c>
-      <c r="G78">
-        <v>3</v>
-      </c>
       <c r="H78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <f>SUM(B78:H78)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>86</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>2</v>
-      </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <f>SUM(B79:H79)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2502,26 +2535,23 @@
         <v>87</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <f>SUM(B80:H80)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>88</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
         <f>SUM(B81:H81)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2540,12 +2570,12 @@
       <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="F83">
-        <v>2</v>
+      <c r="H83">
+        <v>1</v>
       </c>
       <c r="I83">
         <f>SUM(B83:H83)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2564,39 +2594,24 @@
       <c r="A85" t="s">
         <v>92</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <f>SUM(B85:H85)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>93</v>
       </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <f>SUM(B86:H86)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2615,15 +2630,12 @@
       <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="B88">
-        <v>5</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88">
         <f>SUM(B88:H88)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2642,18 +2654,12 @@
       <c r="A90" t="s">
         <v>97</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <f>SUM(B90:H90)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -2673,11 +2679,11 @@
         <v>99</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <f>SUM(B92:H92)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2696,7 +2702,7 @@
       <c r="A94" t="s">
         <v>101</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
@@ -2708,18 +2714,12 @@
       <c r="A95" t="s">
         <v>102</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <f>SUM(B95:H95)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -2738,7 +2738,7 @@
       <c r="A97" t="s">
         <v>104</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
@@ -2951,8 +2951,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I93">
-    <sortCondition ref="A4"/>
+  <sortState ref="A2:I97">
+    <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
